--- a/PCB/список для покупки.xlsx
+++ b/PCB/список для покупки.xlsx
@@ -1,16 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" codeName="ЭтаКнига" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
+  <workbookPr filterPrivacy="1" codeName="ЭтаКнига"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6F870C4-EFD8-4E48-BBBF-562ECBB7E417}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="белчип" sheetId="3" r:id="rId1"/>
     <sheet name="Лист4" sheetId="5" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="31">
   <si>
     <t>https://belchip.by/product/?selected_product=10603</t>
   </si>
@@ -104,12 +105,21 @@
   </si>
   <si>
     <t>https://belchip.by/product/?selected_product=01564</t>
+  </si>
+  <si>
+    <t>допы</t>
+  </si>
+  <si>
+    <t>https://belchip.by/product/?selected_product=15832</t>
+  </si>
+  <si>
+    <t>https://belchip.by/product/?selected_product=53553</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -432,36 +442,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:S53"/>
+  <dimension ref="A1:L67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="17.88671875" customWidth="1"/>
+    <col min="1" max="1" width="18.28515625" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>16</v>
       </c>
-      <c r="N1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>17</v>
       </c>
-      <c r="N2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -480,26 +485,8 @@
       <c r="F3" t="s">
         <v>1</v>
       </c>
-      <c r="N3" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P3" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>13</v>
-      </c>
-      <c r="R3" t="s">
-        <v>12</v>
-      </c>
-      <c r="S3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -519,79 +506,35 @@
         <v>6.74</v>
       </c>
       <c r="F4" t="str">
-        <f>GetProductName(A4)</f>
+        <f t="shared" ref="F4:F12" si="0">GetProductName(A4)</f>
         <v>Микроконтроллер STM32F103C8T6 / LQFP-48</v>
       </c>
-      <c r="N4" t="s">
-        <v>6</v>
-      </c>
-      <c r="O4" t="str">
-        <f t="shared" ref="O4:O6" si="0">MID(N4, FIND("selected_product=", N4) + 16, LEN(N4))</f>
-        <v>=03159</v>
-      </c>
-      <c r="P4">
-        <v>2</v>
-      </c>
-      <c r="Q4" t="str">
-        <f t="shared" ref="Q4:Q6" si="1">GetPriceProduct(N4)</f>
-        <v>0.98 руб./шт</v>
-      </c>
-      <c r="R4" s="2">
-        <f t="shared" ref="R4:R6" si="2">SUBSTITUTE(MID(Q4,1,4),".",",")*P4</f>
-        <v>1.96</v>
-      </c>
-      <c r="S4" t="str">
-        <f>GetProductName(N4)</f>
-        <v>Конденсатор танталовый SMD C 10uF 16V 10% / TAJC106K016RNJ</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5" t="str">
-        <f t="shared" ref="B5" si="3">MID(A5, FIND("selected_product=", A5) + 16, LEN(A5))</f>
+        <f t="shared" ref="B5" si="1">MID(A5, FIND("selected_product=", A5) + 16, LEN(A5))</f>
         <v>=01854</v>
       </c>
       <c r="C5">
         <v>4</v>
       </c>
       <c r="D5" t="str">
-        <f t="shared" ref="D5" si="4">GetPriceProduct(A5)</f>
+        <f t="shared" ref="D5" si="2">GetPriceProduct(A5)</f>
         <v>0.10 руб./шт</v>
       </c>
       <c r="E5" s="2">
-        <f t="shared" ref="E5" si="5">SUBSTITUTE(MID(D5,1,4),".",",")*C5</f>
+        <f t="shared" ref="E5" si="3">SUBSTITUTE(MID(D5,1,4),".",",")*C5</f>
         <v>0.4</v>
       </c>
       <c r="F5" t="str">
-        <f>GetProductName(A5)</f>
+        <f t="shared" si="0"/>
         <v>Стабилитрон BZX84C3V3 / 3.3В, 0.25Вт</v>
       </c>
-      <c r="N5" t="s">
-        <v>10</v>
-      </c>
-      <c r="O5" t="str">
-        <f t="shared" si="0"/>
-        <v>=34460</v>
-      </c>
-      <c r="P5">
-        <v>1</v>
-      </c>
-      <c r="Q5" t="str">
-        <f t="shared" si="1"/>
-        <v>0.29 руб./шт</v>
-      </c>
-      <c r="R5" s="2">
-        <f t="shared" si="2"/>
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="S5" t="str">
-        <f>GetProductName(N5)</f>
-        <v>Разъем штыревой PBS 1x12 / PBS-12 ( DS1023-1x12S21 ) гнездо на плату шаг 2.54</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -611,126 +554,83 @@
         <v>0.2</v>
       </c>
       <c r="F6" t="str">
-        <f>GetProductName(A6)</f>
+        <f t="shared" si="0"/>
         <v>Транзистор биполярный BC857A / PNP, 0.1А, 45В, SOT-23</v>
       </c>
-      <c r="N6" t="s">
-        <v>15</v>
-      </c>
-      <c r="O6" t="str">
-        <f t="shared" si="0"/>
-        <v>=34058</v>
-      </c>
-      <c r="P6">
-        <v>1</v>
-      </c>
-      <c r="Q6" t="str">
-        <f t="shared" si="1"/>
-        <v>8.71 руб./шт</v>
-      </c>
-      <c r="R6" s="2">
-        <f t="shared" si="2"/>
-        <v>8.7100000000000009</v>
-      </c>
-      <c r="S6" t="str">
-        <f>GetProductName(N6)</f>
-        <v>Субмодуль TB6612FNG / драйвер шагового двигателя, 1.2А, 2.7-5.5В, макс. 12В</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="B7" t="str">
-        <f t="shared" ref="B7:B13" si="6">MID(A7, FIND("selected_product=", A7) + 16, LEN(A7))</f>
+        <f t="shared" ref="B7:B9" si="4">MID(A7, FIND("selected_product=", A7) + 16, LEN(A7))</f>
         <v>=03159</v>
       </c>
       <c r="C7">
         <v>2</v>
       </c>
       <c r="D7" t="str">
-        <f t="shared" ref="D7:D13" si="7">GetPriceProduct(A7)</f>
+        <f t="shared" ref="D7:D9" si="5">GetPriceProduct(A7)</f>
         <v>0.98 руб./шт</v>
       </c>
       <c r="E7" s="2">
-        <f t="shared" ref="E7:E13" si="8">SUBSTITUTE(MID(D7,1,4),".",",")*C7</f>
+        <f t="shared" ref="E7:E9" si="6">SUBSTITUTE(MID(D7,1,4),".",",")*C7</f>
         <v>1.96</v>
       </c>
       <c r="F7" t="str">
-        <f>GetProductName(A7)</f>
+        <f t="shared" si="0"/>
         <v>Конденсатор танталовый SMD C 10uF 16V 10% / TAJC106K016RNJ</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
       <c r="B8" t="str">
+        <f t="shared" si="4"/>
+        <v>=55124</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" t="str">
+        <f t="shared" si="5"/>
+        <v>0.04 руб./шт</v>
+      </c>
+      <c r="E8" s="2">
         <f t="shared" si="6"/>
-        <v>=55124</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8" t="str">
-        <f t="shared" si="7"/>
-        <v>0.04 руб./шт</v>
-      </c>
-      <c r="E8" s="2">
-        <f t="shared" si="8"/>
         <v>0.04</v>
       </c>
       <c r="F8" t="str">
-        <f>GetProductName(A8)</f>
+        <f t="shared" si="0"/>
         <v>Светодиод SMD LLS0805SURC / красный</v>
       </c>
-      <c r="N8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>14</v>
       </c>
       <c r="B9" t="str">
+        <f t="shared" si="4"/>
+        <v>=50150</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" t="str">
+        <f t="shared" si="5"/>
+        <v>0.62 руб./шт</v>
+      </c>
+      <c r="E9" s="2">
         <f t="shared" si="6"/>
-        <v>=50150</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9" t="str">
-        <f t="shared" si="7"/>
-        <v>0.62 руб./шт</v>
-      </c>
-      <c r="E9" s="2">
-        <f t="shared" si="8"/>
         <v>0.62</v>
       </c>
       <c r="F9" t="str">
-        <f>GetProductName(A9)</f>
+        <f t="shared" si="0"/>
         <v>Линейный стабилизатор напряжения LM1117GS-3.3 / 3.3В, 1А, SOT-223</v>
       </c>
-      <c r="N9" t="s">
-        <v>2</v>
-      </c>
-      <c r="O9" t="s">
-        <v>5</v>
-      </c>
-      <c r="P9" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>13</v>
-      </c>
-      <c r="R9" t="s">
-        <v>12</v>
-      </c>
-      <c r="S9" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -750,33 +650,11 @@
         <v>0.17</v>
       </c>
       <c r="F10" t="str">
-        <f>GetProductName(A10)</f>
+        <f t="shared" si="0"/>
         <v>Кнопка тактовая L-KLS7-TS3303A-1.5-250-B / 3.5x3.5x1.5 smd (T330)</v>
       </c>
-      <c r="N10" t="s">
-        <v>26</v>
-      </c>
-      <c r="O10" t="str">
-        <f>MID(N10, FIND("selected_product=", N10) + 16, LEN(N10))</f>
-        <v>=47606</v>
-      </c>
-      <c r="P10">
-        <v>2</v>
-      </c>
-      <c r="Q10" t="str">
-        <f>GetPriceProduct(N10)</f>
-        <v>0.04 руб./шт</v>
-      </c>
-      <c r="R10" s="2">
-        <f>SUBSTITUTE(MID(Q10,1,4),".",",")*P10</f>
-        <v>0.08</v>
-      </c>
-      <c r="S10" t="str">
-        <f>GetProductName(N10)</f>
-        <v>Конденсатор SMD 0603 0.1uF 16V X7R ± 10% / CL10B104KO8NNNC</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -796,11 +674,11 @@
         <v>0.1</v>
       </c>
       <c r="F11" t="str">
-        <f>GetProductName(A11)</f>
+        <f t="shared" si="0"/>
         <v>Разъем штыревой PLS-12 / штырь на плату шаг 2.54мм</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -820,16 +698,16 @@
         <v>2.84</v>
       </c>
       <c r="F12" t="str">
-        <f>GetProductName(A12)</f>
+        <f t="shared" si="0"/>
         <v>Резонатор кварцевый SMD NX5032GA-8.000M-STD-CSU-1</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -849,655 +727,881 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B16" t="str">
-        <f>MID(A16, FIND("selected_product=", A16) + 16, LEN(A16))</f>
+        <f t="shared" ref="B16:B21" si="7">MID(A16, FIND("selected_product=", A16) + 16, LEN(A16))</f>
         <v>=29373</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
       <c r="D16" t="str">
-        <f>GetPriceProduct(A16)</f>
+        <f t="shared" ref="D16:D21" si="8">GetPriceProduct(A16)</f>
         <v>0.05 руб./шт</v>
       </c>
       <c r="E16" s="2">
-        <f>SUBSTITUTE(MID(D16,1,4),".",",")*C16</f>
+        <f t="shared" ref="E16:E21" si="9">SUBSTITUTE(MID(D16,1,4),".",",")*C16</f>
         <v>0.05</v>
       </c>
       <c r="F16" t="str">
-        <f>GetProductName(A16)</f>
+        <f t="shared" ref="F16:F21" si="10">GetProductName(A16)</f>
         <v>Резистор SMD 0603 68R ±1% (0.1W) / SMD0603-68R-1%</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>23</v>
       </c>
       <c r="B17" t="str">
-        <f>MID(A17, FIND("selected_product=", A17) + 16, LEN(A17))</f>
+        <f t="shared" si="7"/>
         <v>=30392</v>
       </c>
       <c r="C17">
         <v>8</v>
       </c>
       <c r="D17" t="str">
-        <f>GetPriceProduct(A17)</f>
+        <f t="shared" si="8"/>
         <v>0.06 руб./шт</v>
       </c>
       <c r="E17" s="2">
-        <f>SUBSTITUTE(MID(D17,1,4),".",",")*C17</f>
+        <f t="shared" si="9"/>
         <v>0.48</v>
       </c>
       <c r="F17" t="str">
-        <f>GetProductName(A17)</f>
+        <f t="shared" si="10"/>
         <v>Резистор SMD 0603 1K ±1% (0.1W) / RC0603FR-071KL</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>24</v>
       </c>
       <c r="B18" t="str">
-        <f>MID(A18, FIND("selected_product=", A18) + 16, LEN(A18))</f>
+        <f t="shared" si="7"/>
         <v>=56700</v>
       </c>
       <c r="C18">
         <v>8</v>
       </c>
       <c r="D18" t="str">
-        <f>GetPriceProduct(A18)</f>
+        <f t="shared" si="8"/>
         <v>0.24 руб./шт</v>
       </c>
       <c r="E18" s="2">
-        <f>SUBSTITUTE(MID(D18,1,4),".",",")*C18</f>
+        <f t="shared" si="9"/>
         <v>1.92</v>
       </c>
       <c r="F18" t="str">
-        <f>GetProductName(A18)</f>
+        <f t="shared" si="10"/>
         <v>Резистор SMD 0603 10K ±0.1% (0.1W) / RT0603BRB0710KL</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>25</v>
       </c>
       <c r="B19" t="str">
-        <f>MID(A19, FIND("selected_product=", A19) + 16, LEN(A19))</f>
+        <f t="shared" si="7"/>
         <v>=10362</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
       <c r="D19" t="str">
-        <f>GetPriceProduct(A19)</f>
+        <f t="shared" si="8"/>
         <v>0.50 руб./упак</v>
       </c>
       <c r="E19" s="2">
-        <f>SUBSTITUTE(MID(D19,1,4),".",",")*C19</f>
+        <f t="shared" si="9"/>
         <v>0.5</v>
       </c>
       <c r="F19" t="str">
-        <f>GetProductName(A19)</f>
+        <f t="shared" si="10"/>
         <v>Резистор SMD 0603 100K ±1% (0.1W) / ERJ-3EKF1003V (10шт.)</v>
       </c>
       <c r="L19">
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>26</v>
       </c>
       <c r="B20" t="str">
-        <f>MID(A20, FIND("selected_product=", A20) + 16, LEN(A20))</f>
+        <f t="shared" si="7"/>
         <v>=47606</v>
       </c>
       <c r="C20">
         <v>2</v>
       </c>
       <c r="D20" t="str">
-        <f>GetPriceProduct(A20)</f>
+        <f t="shared" si="8"/>
         <v>0.04 руб./шт</v>
       </c>
       <c r="E20" s="2">
-        <f>SUBSTITUTE(MID(D20,1,4),".",",")*C20</f>
+        <f t="shared" si="9"/>
         <v>0.08</v>
       </c>
       <c r="F20" t="str">
-        <f>GetProductName(A20)</f>
+        <f t="shared" si="10"/>
         <v>Конденсатор SMD 0603 0.1uF 16V X7R ± 10% / CL10B104KO8NNNC</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>27</v>
       </c>
       <c r="B21" t="str">
-        <f>MID(A21, FIND("selected_product=", A21) + 16, LEN(A21))</f>
+        <f t="shared" si="7"/>
         <v>=01564</v>
       </c>
       <c r="C21">
         <v>1</v>
       </c>
       <c r="D21" t="str">
-        <f>GetPriceProduct(A21)</f>
+        <f t="shared" si="8"/>
         <v>0.40 руб./упак</v>
       </c>
       <c r="E21" s="2">
-        <f>SUBSTITUTE(MID(D21,1,4),".",",")*C21</f>
+        <f t="shared" si="9"/>
         <v>0.4</v>
       </c>
       <c r="F21" t="str">
-        <f>GetProductName(A21)</f>
+        <f t="shared" si="10"/>
         <v>Конденсатор SMD 0603 30pF 50V (NP0) ± 5% (10шт.)</v>
       </c>
       <c r="L21">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E22" s="2"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>2</v>
+      </c>
+      <c r="B26" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26" t="s">
+        <v>13</v>
+      </c>
+      <c r="E26" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27" t="str">
+        <f t="shared" ref="B27:B29" si="11">MID(A27, FIND("selected_product=", A27) + 16, LEN(A27))</f>
+        <v>=03159</v>
+      </c>
+      <c r="C27">
+        <v>2</v>
+      </c>
+      <c r="D27" t="str">
+        <f t="shared" ref="D27:D29" si="12">GetPriceProduct(A27)</f>
+        <v>0.98 руб./шт</v>
+      </c>
+      <c r="E27" s="2">
+        <f t="shared" ref="E27:E29" si="13">SUBSTITUTE(MID(D27,1,4),".",",")*C27</f>
+        <v>1.96</v>
+      </c>
+      <c r="F27" t="str">
+        <f>GetProductName(A27)</f>
+        <v>Конденсатор танталовый SMD C 10uF 16V 10% / TAJC106K016RNJ</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" t="str">
+        <f t="shared" si="11"/>
+        <v>=34460</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28" t="str">
+        <f t="shared" si="12"/>
+        <v>0.29 руб./шт</v>
+      </c>
+      <c r="E28" s="2">
+        <f t="shared" si="13"/>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="F28" t="str">
+        <f>GetProductName(A28)</f>
+        <v>Разъем штыревой PBS 1x12 / PBS-12 ( DS1023-1x12S21 ) гнездо на плату шаг 2.54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
+        <v>15</v>
+      </c>
+      <c r="B29" t="str">
+        <f t="shared" si="11"/>
+        <v>=34058</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29" t="str">
+        <f t="shared" si="12"/>
+        <v>8.71 руб./шт</v>
+      </c>
+      <c r="E29" s="2">
+        <f t="shared" si="13"/>
+        <v>8.7100000000000009</v>
+      </c>
+      <c r="F29" t="str">
+        <f>GetProductName(A29)</f>
+        <v>Субмодуль TB6612FNG / драйвер шагового двигателя, 1.2А, 2.7-5.5В, макс. 12В</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>2</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B32" t="s">
         <v>5</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C32" t="s">
         <v>11</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D32" t="s">
         <v>13</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E32" t="s">
         <v>12</v>
       </c>
-      <c r="F30" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B31" t="str">
-        <f>MID(A31, FIND("selected_product=", A31) + 16, LEN(A31))</f>
-        <v>=10603</v>
-      </c>
-      <c r="C31">
-        <v>1</v>
-      </c>
-      <c r="D31" t="str">
-        <f>GetPriceProduct(A31)</f>
-        <v>6.74 руб./шт</v>
-      </c>
-      <c r="E31" s="2">
-        <f>SUBSTITUTE(MID(D31,1,4),".",",")*C31</f>
-        <v>6.74</v>
-      </c>
-      <c r="F31" t="str">
-        <f>GetProductName(A31)</f>
-        <v>Микроконтроллер STM32F103C8T6 / LQFP-48</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>3</v>
-      </c>
-      <c r="B32" t="str">
-        <f t="shared" ref="B32" si="9">MID(A32, FIND("selected_product=", A32) + 16, LEN(A32))</f>
-        <v>=01854</v>
-      </c>
-      <c r="C32">
-        <v>4</v>
-      </c>
-      <c r="D32" t="str">
-        <f t="shared" ref="D32" si="10">GetPriceProduct(A32)</f>
-        <v>0.10 руб./шт</v>
-      </c>
-      <c r="E32" s="2">
-        <f t="shared" ref="E32" si="11">SUBSTITUTE(MID(D32,1,4),".",",")*C32</f>
-        <v>0.4</v>
-      </c>
-      <c r="F32" t="str">
-        <f>GetProductName(A32)</f>
-        <v>Стабилитрон BZX84C3V3 / 3.3В, 0.25Вт</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F32" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="B33" t="str">
         <f>MID(A33, FIND("selected_product=", A33) + 16, LEN(A33))</f>
-        <v>=28697</v>
+        <v>=47606</v>
       </c>
       <c r="C33">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D33" t="str">
         <f>GetPriceProduct(A33)</f>
-        <v>0.05 руб./шт</v>
+        <v>0.04 руб./шт</v>
       </c>
       <c r="E33" s="2">
         <f>SUBSTITUTE(MID(D33,1,4),".",",")*C33</f>
-        <v>0.2</v>
+        <v>0.08</v>
       </c>
       <c r="F33" t="str">
         <f>GetProductName(A33)</f>
-        <v>Транзистор биполярный BC857A / PNP, 0.1А, 45В, SOT-23</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>6</v>
-      </c>
-      <c r="B34" t="str">
-        <f t="shared" ref="B34:B41" si="12">MID(A34, FIND("selected_product=", A34) + 16, LEN(A34))</f>
-        <v>=03159</v>
-      </c>
-      <c r="C34">
-        <v>4</v>
-      </c>
-      <c r="D34" t="str">
-        <f t="shared" ref="D34:D40" si="13">GetPriceProduct(A34)</f>
-        <v>0.98 руб./шт</v>
-      </c>
-      <c r="E34" s="2">
-        <f t="shared" ref="E34:E40" si="14">SUBSTITUTE(MID(D34,1,4),".",",")*C34</f>
-        <v>3.92</v>
-      </c>
-      <c r="F34" t="str">
-        <f>GetProductName(A34)</f>
-        <v>Конденсатор танталовый SMD C 10uF 16V 10% / TAJC106K016RNJ</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>7</v>
-      </c>
-      <c r="B35" t="str">
-        <f t="shared" si="12"/>
-        <v>=55124</v>
-      </c>
-      <c r="C35">
-        <v>1</v>
-      </c>
-      <c r="D35" t="str">
-        <f t="shared" si="13"/>
-        <v>0.04 руб./шт</v>
-      </c>
-      <c r="E35" s="2">
-        <f t="shared" si="14"/>
-        <v>0.04</v>
-      </c>
-      <c r="F35" t="str">
-        <f>GetProductName(A35)</f>
-        <v>Светодиод SMD LLS0805SURC / красный</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>14</v>
-      </c>
-      <c r="B36" t="str">
-        <f t="shared" si="12"/>
-        <v>=50150</v>
-      </c>
-      <c r="C36">
-        <v>1</v>
-      </c>
-      <c r="D36" t="str">
-        <f t="shared" si="13"/>
-        <v>0.62 руб./шт</v>
-      </c>
-      <c r="E36" s="2">
-        <f t="shared" si="14"/>
-        <v>0.62</v>
-      </c>
-      <c r="F36" t="str">
-        <f>GetProductName(A36)</f>
-        <v>Линейный стабилизатор напряжения LM1117GS-3.3 / 3.3В, 1А, SOT-223</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>8</v>
-      </c>
-      <c r="B37" t="str">
-        <f t="shared" si="12"/>
-        <v>=39255</v>
-      </c>
-      <c r="C37">
-        <v>1</v>
-      </c>
-      <c r="D37" t="str">
-        <f t="shared" si="13"/>
-        <v>0.17 руб./шт</v>
-      </c>
-      <c r="E37" s="2">
-        <f t="shared" si="14"/>
-        <v>0.17</v>
-      </c>
-      <c r="F37" t="str">
-        <f>GetProductName(A37)</f>
-        <v>Кнопка тактовая L-KLS7-TS3303A-1.5-250-B / 3.5x3.5x1.5 smd (T330)</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+        <v>Конденсатор SMD 0603 0.1uF 16V X7R ± 10% / CL10B104KO8NNNC</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>9</v>
-      </c>
-      <c r="B38" t="str">
-        <f t="shared" si="12"/>
-        <v>=55803</v>
-      </c>
-      <c r="C38">
-        <v>1</v>
-      </c>
-      <c r="D38" t="str">
-        <f t="shared" si="13"/>
-        <v>0.10 руб./шт</v>
-      </c>
-      <c r="E38" s="2">
-        <f t="shared" si="14"/>
-        <v>0.1</v>
-      </c>
-      <c r="F38" t="str">
-        <f>GetProductName(A38)</f>
-        <v>Разъем штыревой PLS-12 / штырь на плату шаг 2.54мм</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>10</v>
-      </c>
-      <c r="B39" t="str">
-        <f t="shared" si="12"/>
-        <v>=34460</v>
-      </c>
-      <c r="C39">
-        <v>1</v>
-      </c>
-      <c r="D39" t="str">
-        <f t="shared" si="13"/>
-        <v>0.29 руб./шт</v>
-      </c>
-      <c r="E39" s="2">
-        <f t="shared" si="14"/>
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="F39" t="str">
-        <f>GetProductName(A39)</f>
-        <v>Разъем штыревой PBS 1x12 / PBS-12 ( DS1023-1x12S21 ) гнездо на плату шаг 2.54</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>15</v>
+        <v>2</v>
+      </c>
+      <c r="B39" t="s">
+        <v>5</v>
+      </c>
+      <c r="C39" t="s">
+        <v>11</v>
+      </c>
+      <c r="D39" t="s">
+        <v>13</v>
+      </c>
+      <c r="E39" t="s">
+        <v>12</v>
+      </c>
+      <c r="F39" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="B40" t="str">
-        <f t="shared" si="12"/>
-        <v>=34058</v>
+        <f>MID(A40, FIND("selected_product=", A40) + 16, LEN(A40))</f>
+        <v>=10603</v>
       </c>
       <c r="C40">
         <v>1</v>
       </c>
       <c r="D40" t="str">
-        <f t="shared" si="13"/>
-        <v>8.71 руб./шт</v>
+        <f>GetPriceProduct(A40)</f>
+        <v>6.74 руб./шт</v>
       </c>
       <c r="E40" s="2">
-        <f t="shared" si="14"/>
-        <v>8.7100000000000009</v>
+        <f>SUBSTITUTE(MID(D40,1,4),".",",")*C40</f>
+        <v>6.74</v>
       </c>
       <c r="F40" t="str">
         <f>GetProductName(A40)</f>
-        <v>Субмодуль TB6612FNG / драйвер шагового двигателя, 1.2А, 2.7-5.5В, макс. 12В</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>20</v>
+        <v>Микроконтроллер STM32F103C8T6 / LQFP-48</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="B41" t="str">
-        <f t="shared" si="12"/>
-        <v>=50067</v>
+        <f t="shared" ref="B41" si="14">MID(A41, FIND("selected_product=", A41) + 16, LEN(A41))</f>
+        <v>=01854</v>
       </c>
       <c r="C41">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D41" t="str">
         <f t="shared" ref="D41" si="15">GetPriceProduct(A41)</f>
-        <v>1.42 руб./шт</v>
+        <v>0.10 руб./шт</v>
       </c>
       <c r="E41" s="2">
         <f t="shared" ref="E41" si="16">SUBSTITUTE(MID(D41,1,4),".",",")*C41</f>
+        <v>0.4</v>
+      </c>
+      <c r="F41" t="str">
+        <f t="shared" ref="F41:F50" si="17">GetProductName(A41)</f>
+        <v>Стабилитрон BZX84C3V3 / 3.3В, 0.25Вт</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>4</v>
+      </c>
+      <c r="B42" t="str">
+        <f>MID(A42, FIND("selected_product=", A42) + 16, LEN(A42))</f>
+        <v>=28697</v>
+      </c>
+      <c r="C42">
+        <v>4</v>
+      </c>
+      <c r="D42" t="str">
+        <f>GetPriceProduct(A42)</f>
+        <v>0.05 руб./шт</v>
+      </c>
+      <c r="E42" s="2">
+        <f>SUBSTITUTE(MID(D42,1,4),".",",")*C42</f>
+        <v>0.2</v>
+      </c>
+      <c r="F42" t="str">
+        <f t="shared" si="17"/>
+        <v>Транзистор биполярный BC857A / PNP, 0.1А, 45В, SOT-23</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>6</v>
+      </c>
+      <c r="B43" t="str">
+        <f t="shared" ref="B43:B50" si="18">MID(A43, FIND("selected_product=", A43) + 16, LEN(A43))</f>
+        <v>=03159</v>
+      </c>
+      <c r="C43">
+        <v>4</v>
+      </c>
+      <c r="D43" t="str">
+        <f t="shared" ref="D43:D49" si="19">GetPriceProduct(A43)</f>
+        <v>0.98 руб./шт</v>
+      </c>
+      <c r="E43" s="2">
+        <f t="shared" ref="E43:E49" si="20">SUBSTITUTE(MID(D43,1,4),".",",")*C43</f>
+        <v>3.92</v>
+      </c>
+      <c r="F43" t="str">
+        <f t="shared" si="17"/>
+        <v>Конденсатор танталовый SMD C 10uF 16V 10% / TAJC106K016RNJ</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>7</v>
+      </c>
+      <c r="B44" t="str">
+        <f t="shared" si="18"/>
+        <v>=55124</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44" t="str">
+        <f t="shared" si="19"/>
+        <v>0.04 руб./шт</v>
+      </c>
+      <c r="E44" s="2">
+        <f t="shared" si="20"/>
+        <v>0.04</v>
+      </c>
+      <c r="F44" t="str">
+        <f t="shared" si="17"/>
+        <v>Светодиод SMD LLS0805SURC / красный</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>14</v>
+      </c>
+      <c r="B45" t="str">
+        <f t="shared" si="18"/>
+        <v>=50150</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45" t="str">
+        <f t="shared" si="19"/>
+        <v>0.62 руб./шт</v>
+      </c>
+      <c r="E45" s="2">
+        <f t="shared" si="20"/>
+        <v>0.62</v>
+      </c>
+      <c r="F45" t="str">
+        <f t="shared" si="17"/>
+        <v>Линейный стабилизатор напряжения LM1117GS-3.3 / 3.3В, 1А, SOT-223</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>8</v>
+      </c>
+      <c r="B46" t="str">
+        <f t="shared" si="18"/>
+        <v>=39255</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46" t="str">
+        <f t="shared" si="19"/>
+        <v>0.17 руб./шт</v>
+      </c>
+      <c r="E46" s="2">
+        <f t="shared" si="20"/>
+        <v>0.17</v>
+      </c>
+      <c r="F46" t="str">
+        <f t="shared" si="17"/>
+        <v>Кнопка тактовая L-KLS7-TS3303A-1.5-250-B / 3.5x3.5x1.5 smd (T330)</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>9</v>
+      </c>
+      <c r="B47" t="str">
+        <f t="shared" si="18"/>
+        <v>=55803</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47" t="str">
+        <f t="shared" si="19"/>
+        <v>0.10 руб./шт</v>
+      </c>
+      <c r="E47" s="2">
+        <f t="shared" si="20"/>
+        <v>0.1</v>
+      </c>
+      <c r="F47" t="str">
+        <f t="shared" si="17"/>
+        <v>Разъем штыревой PLS-12 / штырь на плату шаг 2.54мм</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>10</v>
+      </c>
+      <c r="B48" t="str">
+        <f t="shared" si="18"/>
+        <v>=34460</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48" t="str">
+        <f t="shared" si="19"/>
+        <v>0.29 руб./шт</v>
+      </c>
+      <c r="E48" s="2">
+        <f t="shared" si="20"/>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="F48" t="str">
+        <f t="shared" si="17"/>
+        <v>Разъем штыревой PBS 1x12 / PBS-12 ( DS1023-1x12S21 ) гнездо на плату шаг 2.54</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>15</v>
+      </c>
+      <c r="B49" t="str">
+        <f t="shared" si="18"/>
+        <v>=34058</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="D49" t="str">
+        <f t="shared" si="19"/>
+        <v>8.71 руб./шт</v>
+      </c>
+      <c r="E49" s="2">
+        <f t="shared" si="20"/>
+        <v>8.7100000000000009</v>
+      </c>
+      <c r="F49" t="str">
+        <f t="shared" si="17"/>
+        <v>Субмодуль TB6612FNG / драйвер шагового двигателя, 1.2А, 2.7-5.5В, макс. 12В</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>20</v>
+      </c>
+      <c r="B50" t="str">
+        <f t="shared" si="18"/>
+        <v>=50067</v>
+      </c>
+      <c r="C50">
+        <v>2</v>
+      </c>
+      <c r="D50" t="str">
+        <f t="shared" ref="D50" si="21">GetPriceProduct(A50)</f>
+        <v>1.42 руб./шт</v>
+      </c>
+      <c r="E50" s="2">
+        <f t="shared" ref="E50" si="22">SUBSTITUTE(MID(D50,1,4),".",",")*C50</f>
         <v>2.84</v>
       </c>
-      <c r="F41" t="str">
-        <f>GetProductName(A41)</f>
+      <c r="F50" t="str">
+        <f t="shared" si="17"/>
         <v>Резонатор кварцевый SMD NX5032GA-8.000M-STD-CSU-1</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D42" t="s">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D51" t="s">
         <v>19</v>
       </c>
-      <c r="E42" s="2">
-        <f>SUM(E31:E41)</f>
+      <c r="E51" s="2">
+        <f>SUM(E40:E50)</f>
         <v>24.029999999999998</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
         <v>2</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B55" t="s">
         <v>5</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C55" t="s">
         <v>11</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D55" t="s">
         <v>13</v>
       </c>
-      <c r="E46" t="s">
+      <c r="E55" t="s">
         <v>12</v>
       </c>
-      <c r="F46" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A47" s="1" t="s">
+      <c r="F55" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B47" t="str">
-        <f>MID(A47, FIND("selected_product=", A47) + 16, LEN(A47))</f>
+      <c r="B56" t="str">
+        <f t="shared" ref="B56:B61" si="23">MID(A56, FIND("selected_product=", A56) + 16, LEN(A56))</f>
         <v>=29373</v>
       </c>
-      <c r="C47">
-        <v>1</v>
-      </c>
-      <c r="D47" t="str">
-        <f>GetPriceProduct(A47)</f>
+      <c r="C56">
+        <v>1</v>
+      </c>
+      <c r="D56" t="str">
+        <f t="shared" ref="D56:D61" si="24">GetPriceProduct(A56)</f>
         <v>0.05 руб./шт</v>
       </c>
-      <c r="E47" s="2">
-        <f>SUBSTITUTE(MID(D47,1,4),".",",")*C47</f>
+      <c r="E56" s="2">
+        <f t="shared" ref="E56:E61" si="25">SUBSTITUTE(MID(D56,1,4),".",",")*C56</f>
         <v>0.05</v>
       </c>
-      <c r="F47" t="str">
-        <f>GetProductName(A47)</f>
+      <c r="F56" t="str">
+        <f t="shared" ref="F56:F61" si="26">GetProductName(A56)</f>
         <v>Резистор SMD 0603 68R ±1% (0.1W) / SMD0603-68R-1%</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
         <v>23</v>
       </c>
-      <c r="B48" t="str">
-        <f>MID(A48, FIND("selected_product=", A48) + 16, LEN(A48))</f>
+      <c r="B57" t="str">
+        <f t="shared" si="23"/>
         <v>=30392</v>
       </c>
-      <c r="C48">
+      <c r="C57">
         <v>8</v>
       </c>
-      <c r="D48" t="str">
-        <f>GetPriceProduct(A48)</f>
+      <c r="D57" t="str">
+        <f t="shared" si="24"/>
         <v>0.06 руб./шт</v>
       </c>
-      <c r="E48" s="2">
-        <f>SUBSTITUTE(MID(D48,1,4),".",",")*C48</f>
+      <c r="E57" s="2">
+        <f t="shared" si="25"/>
         <v>0.48</v>
       </c>
-      <c r="F48" t="str">
-        <f>GetProductName(A48)</f>
+      <c r="F57" t="str">
+        <f t="shared" si="26"/>
         <v>Резистор SMD 0603 1K ±1% (0.1W) / RC0603FR-071KL</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
         <v>24</v>
       </c>
-      <c r="B49" t="str">
-        <f>MID(A49, FIND("selected_product=", A49) + 16, LEN(A49))</f>
+      <c r="B58" t="str">
+        <f t="shared" si="23"/>
         <v>=56700</v>
       </c>
-      <c r="C49">
+      <c r="C58">
         <v>8</v>
       </c>
-      <c r="D49" t="str">
-        <f>GetPriceProduct(A49)</f>
+      <c r="D58" t="str">
+        <f t="shared" si="24"/>
         <v>0.24 руб./шт</v>
       </c>
-      <c r="E49" s="2">
-        <f>SUBSTITUTE(MID(D49,1,4),".",",")*C49</f>
+      <c r="E58" s="2">
+        <f t="shared" si="25"/>
         <v>1.92</v>
       </c>
-      <c r="F49" t="str">
-        <f>GetProductName(A49)</f>
+      <c r="F58" t="str">
+        <f t="shared" si="26"/>
         <v>Резистор SMD 0603 10K ±0.1% (0.1W) / RT0603BRB0710KL</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
         <v>25</v>
       </c>
-      <c r="B50" t="str">
-        <f>MID(A50, FIND("selected_product=", A50) + 16, LEN(A50))</f>
+      <c r="B59" t="str">
+        <f t="shared" si="23"/>
         <v>=10362</v>
       </c>
-      <c r="C50">
-        <v>1</v>
-      </c>
-      <c r="D50" t="str">
-        <f>GetPriceProduct(A50)</f>
+      <c r="C59">
+        <v>1</v>
+      </c>
+      <c r="D59" t="str">
+        <f t="shared" si="24"/>
         <v>0.50 руб./упак</v>
       </c>
-      <c r="E50" s="2">
-        <f>SUBSTITUTE(MID(D50,1,4),".",",")*C50</f>
+      <c r="E59" s="2">
+        <f t="shared" si="25"/>
         <v>0.5</v>
       </c>
-      <c r="F50" t="str">
-        <f>GetProductName(A50)</f>
+      <c r="F59" t="str">
+        <f t="shared" si="26"/>
         <v>Резистор SMD 0603 100K ±1% (0.1W) / ERJ-3EKF1003V (10шт.)</v>
       </c>
-      <c r="L50">
+      <c r="L59">
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
         <v>26</v>
       </c>
-      <c r="B51" t="str">
-        <f>MID(A51, FIND("selected_product=", A51) + 16, LEN(A51))</f>
+      <c r="B60" t="str">
+        <f t="shared" si="23"/>
         <v>=47606</v>
       </c>
-      <c r="C51">
+      <c r="C60">
         <v>5</v>
       </c>
-      <c r="D51" t="str">
-        <f>GetPriceProduct(A51)</f>
+      <c r="D60" t="str">
+        <f t="shared" si="24"/>
         <v>0.04 руб./шт</v>
       </c>
-      <c r="E51" s="2">
-        <f>SUBSTITUTE(MID(D51,1,4),".",",")*C51</f>
+      <c r="E60" s="2">
+        <f t="shared" si="25"/>
         <v>0.2</v>
       </c>
-      <c r="F51" t="str">
-        <f>GetProductName(A51)</f>
+      <c r="F60" t="str">
+        <f t="shared" si="26"/>
         <v>Конденсатор SMD 0603 0.1uF 16V X7R ± 10% / CL10B104KO8NNNC</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
         <v>27</v>
       </c>
-      <c r="B52" t="str">
-        <f>MID(A52, FIND("selected_product=", A52) + 16, LEN(A52))</f>
+      <c r="B61" t="str">
+        <f t="shared" si="23"/>
         <v>=01564</v>
       </c>
-      <c r="C52">
-        <v>1</v>
-      </c>
-      <c r="D52" t="str">
-        <f>GetPriceProduct(A52)</f>
+      <c r="C61">
+        <v>1</v>
+      </c>
+      <c r="D61" t="str">
+        <f t="shared" si="24"/>
         <v>0.40 руб./упак</v>
       </c>
-      <c r="E52" s="2">
-        <f>SUBSTITUTE(MID(D52,1,4),".",",")*C52</f>
+      <c r="E61" s="2">
+        <f t="shared" si="25"/>
         <v>0.4</v>
       </c>
-      <c r="F52" t="str">
-        <f>GetProductName(A52)</f>
+      <c r="F61" t="str">
+        <f t="shared" si="26"/>
         <v>Конденсатор SMD 0603 30pF 50V (NP0) ± 5% (10шт.)</v>
       </c>
-      <c r="L52">
+      <c r="L61">
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="E53" s="2">
-        <f>SUM(E47:E52)</f>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E62" s="2">
+        <f>SUM(E56:E61)</f>
         <v>3.5500000000000003</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>2</v>
+      </c>
+      <c r="B65" t="s">
+        <v>5</v>
+      </c>
+      <c r="C65" t="s">
+        <v>11</v>
+      </c>
+      <c r="D65" t="s">
+        <v>13</v>
+      </c>
+      <c r="E65" t="s">
+        <v>12</v>
+      </c>
+      <c r="F65" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>29</v>
+      </c>
+      <c r="B66" t="str">
+        <f t="shared" ref="B66:B67" si="27">MID(A66, FIND("selected_product=", A66) + 16, LEN(A66))</f>
+        <v>=15832</v>
+      </c>
+      <c r="C66">
+        <v>1</v>
+      </c>
+      <c r="D66" t="str">
+        <f t="shared" ref="D66" si="28">GetPriceProduct(A66)</f>
+        <v>13.70 руб./шт</v>
+      </c>
+      <c r="E66" s="2">
+        <f t="shared" ref="E66" si="29">SUBSTITUTE(MID(D66,1,4),".",",")*C66</f>
+        <v>13.7</v>
+      </c>
+      <c r="F66" t="str">
+        <f t="shared" ref="F66" si="30">GetProductName(A66)</f>
+        <v>Фоторезист пленочный CX-1000 305x1000mm / негативный (1м)</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>30</v>
+      </c>
+      <c r="B67" t="str">
+        <f t="shared" si="27"/>
+        <v>=53553</v>
+      </c>
+      <c r="C67">
+        <v>1</v>
+      </c>
+      <c r="D67" t="str">
+        <f t="shared" ref="D67" si="31">GetPriceProduct(A67)</f>
+        <v>3 руб./шт</v>
+      </c>
+      <c r="E67" s="2" t="e">
+        <f t="shared" ref="E67" si="32">SUBSTITUTE(MID(D67,1,4),".",",")*C67</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F67" t="str">
+        <f t="shared" ref="F67" si="33">GetProductName(A67)</f>
+        <v>Припой 1.0/10г Sn60Pb40 flux 2% DIS1; с каниф., 10г</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A16" r:id="rId1"/>
-    <hyperlink ref="A47" r:id="rId2"/>
+    <hyperlink ref="A16" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="A56" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="A4" r:id="rId3" xr:uid="{85161B71-0105-4E20-8415-898860718C1B}"/>
+    <hyperlink ref="A41" r:id="rId4" xr:uid="{38995564-0C28-4B3D-9CA0-C93101D425F0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Лист3"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/PCB/список для покупки.xlsx
+++ b/PCB/список для покупки.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ЭтаКнига" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="белчип" sheetId="3" r:id="rId1"/>
-    <sheet name="Лист4" sheetId="5" r:id="rId2"/>
+    <sheet name="Макрос1" sheetId="6" state="hidden" r:id="rId1"/>
+    <sheet name="белчип" sheetId="3" r:id="rId2"/>
+    <sheet name="Лист4" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -432,12 +433,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист1"/>
   <dimension ref="A1:S53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -519,25 +532,25 @@
         <v>6.74</v>
       </c>
       <c r="F4" t="str">
-        <f>GetProductName(A4)</f>
+        <f t="shared" ref="F4:F12" si="0">GetProductName(A4)</f>
         <v>Микроконтроллер STM32F103C8T6 / LQFP-48</v>
       </c>
       <c r="N4" t="s">
         <v>6</v>
       </c>
       <c r="O4" t="str">
-        <f t="shared" ref="O4:O6" si="0">MID(N4, FIND("selected_product=", N4) + 16, LEN(N4))</f>
+        <f t="shared" ref="O4:O6" si="1">MID(N4, FIND("selected_product=", N4) + 16, LEN(N4))</f>
         <v>=03159</v>
       </c>
       <c r="P4">
         <v>2</v>
       </c>
       <c r="Q4" t="str">
-        <f t="shared" ref="Q4:Q6" si="1">GetPriceProduct(N4)</f>
+        <f t="shared" ref="Q4:Q6" si="2">GetPriceProduct(N4)</f>
         <v>0.98 руб./шт</v>
       </c>
       <c r="R4" s="2">
-        <f t="shared" ref="R4:R6" si="2">SUBSTITUTE(MID(Q4,1,4),".",",")*P4</f>
+        <f t="shared" ref="R4:R6" si="3">SUBSTITUTE(MID(Q4,1,4),".",",")*P4</f>
         <v>1.96</v>
       </c>
       <c r="S4" t="str">
@@ -546,44 +559,44 @@
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5" t="str">
-        <f t="shared" ref="B5" si="3">MID(A5, FIND("selected_product=", A5) + 16, LEN(A5))</f>
+        <f t="shared" ref="B5" si="4">MID(A5, FIND("selected_product=", A5) + 16, LEN(A5))</f>
         <v>=01854</v>
       </c>
       <c r="C5">
         <v>4</v>
       </c>
-      <c r="D5" t="str">
-        <f t="shared" ref="D5" si="4">GetPriceProduct(A5)</f>
-        <v>0.10 руб./шт</v>
-      </c>
-      <c r="E5" s="2">
-        <f t="shared" ref="E5" si="5">SUBSTITUTE(MID(D5,1,4),".",",")*C5</f>
-        <v>0.4</v>
-      </c>
-      <c r="F5" t="str">
-        <f>GetProductName(A5)</f>
-        <v>Стабилитрон BZX84C3V3 / 3.3В, 0.25Вт</v>
+      <c r="D5" t="e">
+        <f t="shared" ref="D5" ca="1" si="5">GetPriceProduct(A5)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="E5" s="2" t="e">
+        <f t="shared" ref="E5" ca="1" si="6">SUBSTITUTE(MID(D5,1,4),".",",")*C5</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F5" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
       </c>
       <c r="N5" t="s">
         <v>10</v>
       </c>
       <c r="O5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>=34460</v>
       </c>
       <c r="P5">
         <v>1</v>
       </c>
       <c r="Q5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.29 руб./шт</v>
       </c>
       <c r="R5" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.28999999999999998</v>
       </c>
       <c r="S5" t="str">
@@ -611,25 +624,25 @@
         <v>0.2</v>
       </c>
       <c r="F6" t="str">
-        <f>GetProductName(A6)</f>
+        <f t="shared" si="0"/>
         <v>Транзистор биполярный BC857A / PNP, 0.1А, 45В, SOT-23</v>
       </c>
       <c r="N6" t="s">
         <v>15</v>
       </c>
       <c r="O6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>=34058</v>
       </c>
       <c r="P6">
         <v>1</v>
       </c>
       <c r="Q6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8.71 руб./шт</v>
       </c>
       <c r="R6" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8.7100000000000009</v>
       </c>
       <c r="S6" t="str">
@@ -642,22 +655,22 @@
         <v>6</v>
       </c>
       <c r="B7" t="str">
-        <f t="shared" ref="B7:B13" si="6">MID(A7, FIND("selected_product=", A7) + 16, LEN(A7))</f>
+        <f t="shared" ref="B7:B9" si="7">MID(A7, FIND("selected_product=", A7) + 16, LEN(A7))</f>
         <v>=03159</v>
       </c>
       <c r="C7">
         <v>2</v>
       </c>
       <c r="D7" t="str">
-        <f t="shared" ref="D7:D13" si="7">GetPriceProduct(A7)</f>
+        <f t="shared" ref="D7:D9" si="8">GetPriceProduct(A7)</f>
         <v>0.98 руб./шт</v>
       </c>
       <c r="E7" s="2">
-        <f t="shared" ref="E7:E13" si="8">SUBSTITUTE(MID(D7,1,4),".",",")*C7</f>
+        <f t="shared" ref="E7:E9" si="9">SUBSTITUTE(MID(D7,1,4),".",",")*C7</f>
         <v>1.96</v>
       </c>
       <c r="F7" t="str">
-        <f>GetProductName(A7)</f>
+        <f t="shared" si="0"/>
         <v>Конденсатор танталовый SMD C 10uF 16V 10% / TAJC106K016RNJ</v>
       </c>
     </row>
@@ -666,22 +679,22 @@
         <v>7</v>
       </c>
       <c r="B8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>=55124</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.04 руб./шт</v>
       </c>
       <c r="E8" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.04</v>
       </c>
       <c r="F8" t="str">
-        <f>GetProductName(A8)</f>
+        <f t="shared" si="0"/>
         <v>Светодиод SMD LLS0805SURC / красный</v>
       </c>
       <c r="N8" t="s">
@@ -693,22 +706,22 @@
         <v>14</v>
       </c>
       <c r="B9" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>=50150</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.62 руб./шт</v>
       </c>
       <c r="E9" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.62</v>
       </c>
       <c r="F9" t="str">
-        <f>GetProductName(A9)</f>
+        <f t="shared" si="0"/>
         <v>Линейный стабилизатор напряжения LM1117GS-3.3 / 3.3В, 1А, SOT-223</v>
       </c>
       <c r="N9" t="s">
@@ -750,7 +763,7 @@
         <v>0.17</v>
       </c>
       <c r="F10" t="str">
-        <f>GetProductName(A10)</f>
+        <f t="shared" si="0"/>
         <v>Кнопка тактовая L-KLS7-TS3303A-1.5-250-B / 3.5x3.5x1.5 smd (T330)</v>
       </c>
       <c r="N10" t="s">
@@ -796,7 +809,7 @@
         <v>0.1</v>
       </c>
       <c r="F11" t="str">
-        <f>GetProductName(A11)</f>
+        <f t="shared" si="0"/>
         <v>Разъем штыревой PLS-12 / штырь на плату шаг 2.54мм</v>
       </c>
     </row>
@@ -820,7 +833,7 @@
         <v>2.84</v>
       </c>
       <c r="F12" t="str">
-        <f>GetProductName(A12)</f>
+        <f t="shared" si="0"/>
         <v>Резонатор кварцевый SMD NX5032GA-8.000M-STD-CSU-1</v>
       </c>
     </row>
@@ -854,22 +867,22 @@
         <v>22</v>
       </c>
       <c r="B16" t="str">
-        <f>MID(A16, FIND("selected_product=", A16) + 16, LEN(A16))</f>
+        <f t="shared" ref="B16:B21" si="10">MID(A16, FIND("selected_product=", A16) + 16, LEN(A16))</f>
         <v>=29373</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
       <c r="D16" t="str">
-        <f>GetPriceProduct(A16)</f>
+        <f t="shared" ref="D16:D21" si="11">GetPriceProduct(A16)</f>
         <v>0.05 руб./шт</v>
       </c>
       <c r="E16" s="2">
-        <f>SUBSTITUTE(MID(D16,1,4),".",",")*C16</f>
+        <f t="shared" ref="E16:E21" si="12">SUBSTITUTE(MID(D16,1,4),".",",")*C16</f>
         <v>0.05</v>
       </c>
       <c r="F16" t="str">
-        <f>GetProductName(A16)</f>
+        <f t="shared" ref="F16:F21" si="13">GetProductName(A16)</f>
         <v>Резистор SMD 0603 68R ±1% (0.1W) / SMD0603-68R-1%</v>
       </c>
     </row>
@@ -878,22 +891,22 @@
         <v>23</v>
       </c>
       <c r="B17" t="str">
-        <f>MID(A17, FIND("selected_product=", A17) + 16, LEN(A17))</f>
+        <f t="shared" si="10"/>
         <v>=30392</v>
       </c>
       <c r="C17">
         <v>8</v>
       </c>
       <c r="D17" t="str">
-        <f>GetPriceProduct(A17)</f>
+        <f t="shared" si="11"/>
         <v>0.06 руб./шт</v>
       </c>
       <c r="E17" s="2">
-        <f>SUBSTITUTE(MID(D17,1,4),".",",")*C17</f>
+        <f t="shared" si="12"/>
         <v>0.48</v>
       </c>
       <c r="F17" t="str">
-        <f>GetProductName(A17)</f>
+        <f t="shared" si="13"/>
         <v>Резистор SMD 0603 1K ±1% (0.1W) / RC0603FR-071KL</v>
       </c>
     </row>
@@ -902,22 +915,22 @@
         <v>24</v>
       </c>
       <c r="B18" t="str">
-        <f>MID(A18, FIND("selected_product=", A18) + 16, LEN(A18))</f>
+        <f t="shared" si="10"/>
         <v>=56700</v>
       </c>
       <c r="C18">
         <v>8</v>
       </c>
       <c r="D18" t="str">
-        <f>GetPriceProduct(A18)</f>
+        <f t="shared" si="11"/>
         <v>0.24 руб./шт</v>
       </c>
       <c r="E18" s="2">
-        <f>SUBSTITUTE(MID(D18,1,4),".",",")*C18</f>
+        <f t="shared" si="12"/>
         <v>1.92</v>
       </c>
       <c r="F18" t="str">
-        <f>GetProductName(A18)</f>
+        <f t="shared" si="13"/>
         <v>Резистор SMD 0603 10K ±0.1% (0.1W) / RT0603BRB0710KL</v>
       </c>
     </row>
@@ -926,22 +939,22 @@
         <v>25</v>
       </c>
       <c r="B19" t="str">
-        <f>MID(A19, FIND("selected_product=", A19) + 16, LEN(A19))</f>
+        <f t="shared" si="10"/>
         <v>=10362</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
       <c r="D19" t="str">
-        <f>GetPriceProduct(A19)</f>
+        <f t="shared" si="11"/>
         <v>0.50 руб./упак</v>
       </c>
       <c r="E19" s="2">
-        <f>SUBSTITUTE(MID(D19,1,4),".",",")*C19</f>
+        <f t="shared" si="12"/>
         <v>0.5</v>
       </c>
       <c r="F19" t="str">
-        <f>GetProductName(A19)</f>
+        <f t="shared" si="13"/>
         <v>Резистор SMD 0603 100K ±1% (0.1W) / ERJ-3EKF1003V (10шт.)</v>
       </c>
       <c r="L19">
@@ -953,22 +966,22 @@
         <v>26</v>
       </c>
       <c r="B20" t="str">
-        <f>MID(A20, FIND("selected_product=", A20) + 16, LEN(A20))</f>
+        <f t="shared" si="10"/>
         <v>=47606</v>
       </c>
       <c r="C20">
         <v>2</v>
       </c>
       <c r="D20" t="str">
-        <f>GetPriceProduct(A20)</f>
+        <f t="shared" si="11"/>
         <v>0.04 руб./шт</v>
       </c>
       <c r="E20" s="2">
-        <f>SUBSTITUTE(MID(D20,1,4),".",",")*C20</f>
+        <f t="shared" si="12"/>
         <v>0.08</v>
       </c>
       <c r="F20" t="str">
-        <f>GetProductName(A20)</f>
+        <f t="shared" si="13"/>
         <v>Конденсатор SMD 0603 0.1uF 16V X7R ± 10% / CL10B104KO8NNNC</v>
       </c>
     </row>
@@ -977,22 +990,22 @@
         <v>27</v>
       </c>
       <c r="B21" t="str">
-        <f>MID(A21, FIND("selected_product=", A21) + 16, LEN(A21))</f>
+        <f t="shared" si="10"/>
         <v>=01564</v>
       </c>
       <c r="C21">
         <v>1</v>
       </c>
       <c r="D21" t="str">
-        <f>GetPriceProduct(A21)</f>
+        <f t="shared" si="11"/>
         <v>0.40 руб./упак</v>
       </c>
       <c r="E21" s="2">
-        <f>SUBSTITUTE(MID(D21,1,4),".",",")*C21</f>
+        <f t="shared" si="12"/>
         <v>0.4</v>
       </c>
       <c r="F21" t="str">
-        <f>GetProductName(A21)</f>
+        <f t="shared" si="13"/>
         <v>Конденсатор SMD 0603 30pF 50V (NP0) ± 5% (10шт.)</v>
       </c>
       <c r="L21">
@@ -1047,7 +1060,7 @@
         <v>6.74</v>
       </c>
       <c r="F31" t="str">
-        <f>GetProductName(A31)</f>
+        <f t="shared" ref="F31:F41" si="14">GetProductName(A31)</f>
         <v>Микроконтроллер STM32F103C8T6 / LQFP-48</v>
       </c>
     </row>
@@ -1056,22 +1069,22 @@
         <v>3</v>
       </c>
       <c r="B32" t="str">
-        <f t="shared" ref="B32" si="9">MID(A32, FIND("selected_product=", A32) + 16, LEN(A32))</f>
+        <f t="shared" ref="B32" si="15">MID(A32, FIND("selected_product=", A32) + 16, LEN(A32))</f>
         <v>=01854</v>
       </c>
       <c r="C32">
         <v>4</v>
       </c>
       <c r="D32" t="str">
-        <f t="shared" ref="D32" si="10">GetPriceProduct(A32)</f>
+        <f t="shared" ref="D32" si="16">GetPriceProduct(A32)</f>
         <v>0.10 руб./шт</v>
       </c>
       <c r="E32" s="2">
-        <f t="shared" ref="E32" si="11">SUBSTITUTE(MID(D32,1,4),".",",")*C32</f>
+        <f t="shared" ref="E32" si="17">SUBSTITUTE(MID(D32,1,4),".",",")*C32</f>
         <v>0.4</v>
       </c>
       <c r="F32" t="str">
-        <f>GetProductName(A32)</f>
+        <f t="shared" si="14"/>
         <v>Стабилитрон BZX84C3V3 / 3.3В, 0.25Вт</v>
       </c>
     </row>
@@ -1095,7 +1108,7 @@
         <v>0.2</v>
       </c>
       <c r="F33" t="str">
-        <f>GetProductName(A33)</f>
+        <f t="shared" si="14"/>
         <v>Транзистор биполярный BC857A / PNP, 0.1А, 45В, SOT-23</v>
       </c>
     </row>
@@ -1104,22 +1117,22 @@
         <v>6</v>
       </c>
       <c r="B34" t="str">
-        <f t="shared" ref="B34:B41" si="12">MID(A34, FIND("selected_product=", A34) + 16, LEN(A34))</f>
+        <f t="shared" ref="B34:B41" si="18">MID(A34, FIND("selected_product=", A34) + 16, LEN(A34))</f>
         <v>=03159</v>
       </c>
       <c r="C34">
         <v>4</v>
       </c>
       <c r="D34" t="str">
-        <f t="shared" ref="D34:D40" si="13">GetPriceProduct(A34)</f>
+        <f t="shared" ref="D34:D40" si="19">GetPriceProduct(A34)</f>
         <v>0.98 руб./шт</v>
       </c>
       <c r="E34" s="2">
-        <f t="shared" ref="E34:E40" si="14">SUBSTITUTE(MID(D34,1,4),".",",")*C34</f>
+        <f t="shared" ref="E34:E40" si="20">SUBSTITUTE(MID(D34,1,4),".",",")*C34</f>
         <v>3.92</v>
       </c>
       <c r="F34" t="str">
-        <f>GetProductName(A34)</f>
+        <f t="shared" si="14"/>
         <v>Конденсатор танталовый SMD C 10uF 16V 10% / TAJC106K016RNJ</v>
       </c>
     </row>
@@ -1128,22 +1141,22 @@
         <v>7</v>
       </c>
       <c r="B35" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>=55124</v>
       </c>
       <c r="C35">
         <v>1</v>
       </c>
       <c r="D35" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>0.04 руб./шт</v>
       </c>
       <c r="E35" s="2">
+        <f t="shared" si="20"/>
+        <v>0.04</v>
+      </c>
+      <c r="F35" t="str">
         <f t="shared" si="14"/>
-        <v>0.04</v>
-      </c>
-      <c r="F35" t="str">
-        <f>GetProductName(A35)</f>
         <v>Светодиод SMD LLS0805SURC / красный</v>
       </c>
     </row>
@@ -1152,22 +1165,22 @@
         <v>14</v>
       </c>
       <c r="B36" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>=50150</v>
       </c>
       <c r="C36">
         <v>1</v>
       </c>
       <c r="D36" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>0.62 руб./шт</v>
       </c>
       <c r="E36" s="2">
+        <f t="shared" si="20"/>
+        <v>0.62</v>
+      </c>
+      <c r="F36" t="str">
         <f t="shared" si="14"/>
-        <v>0.62</v>
-      </c>
-      <c r="F36" t="str">
-        <f>GetProductName(A36)</f>
         <v>Линейный стабилизатор напряжения LM1117GS-3.3 / 3.3В, 1А, SOT-223</v>
       </c>
     </row>
@@ -1176,22 +1189,22 @@
         <v>8</v>
       </c>
       <c r="B37" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>=39255</v>
       </c>
       <c r="C37">
         <v>1</v>
       </c>
       <c r="D37" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>0.17 руб./шт</v>
       </c>
       <c r="E37" s="2">
+        <f t="shared" si="20"/>
+        <v>0.17</v>
+      </c>
+      <c r="F37" t="str">
         <f t="shared" si="14"/>
-        <v>0.17</v>
-      </c>
-      <c r="F37" t="str">
-        <f>GetProductName(A37)</f>
         <v>Кнопка тактовая L-KLS7-TS3303A-1.5-250-B / 3.5x3.5x1.5 smd (T330)</v>
       </c>
     </row>
@@ -1200,22 +1213,22 @@
         <v>9</v>
       </c>
       <c r="B38" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>=55803</v>
       </c>
       <c r="C38">
         <v>1</v>
       </c>
       <c r="D38" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>0.10 руб./шт</v>
       </c>
       <c r="E38" s="2">
+        <f t="shared" si="20"/>
+        <v>0.1</v>
+      </c>
+      <c r="F38" t="str">
         <f t="shared" si="14"/>
-        <v>0.1</v>
-      </c>
-      <c r="F38" t="str">
-        <f>GetProductName(A38)</f>
         <v>Разъем штыревой PLS-12 / штырь на плату шаг 2.54мм</v>
       </c>
     </row>
@@ -1224,22 +1237,22 @@
         <v>10</v>
       </c>
       <c r="B39" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>=34460</v>
       </c>
       <c r="C39">
         <v>1</v>
       </c>
       <c r="D39" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>0.29 руб./шт</v>
       </c>
       <c r="E39" s="2">
+        <f t="shared" si="20"/>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="F39" t="str">
         <f t="shared" si="14"/>
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="F39" t="str">
-        <f>GetProductName(A39)</f>
         <v>Разъем штыревой PBS 1x12 / PBS-12 ( DS1023-1x12S21 ) гнездо на плату шаг 2.54</v>
       </c>
     </row>
@@ -1248,22 +1261,22 @@
         <v>15</v>
       </c>
       <c r="B40" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>=34058</v>
       </c>
       <c r="C40">
         <v>1</v>
       </c>
       <c r="D40" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>8.71 руб./шт</v>
       </c>
       <c r="E40" s="2">
+        <f t="shared" si="20"/>
+        <v>8.7100000000000009</v>
+      </c>
+      <c r="F40" t="str">
         <f t="shared" si="14"/>
-        <v>8.7100000000000009</v>
-      </c>
-      <c r="F40" t="str">
-        <f>GetProductName(A40)</f>
         <v>Субмодуль TB6612FNG / драйвер шагового двигателя, 1.2А, 2.7-5.5В, макс. 12В</v>
       </c>
     </row>
@@ -1272,22 +1285,22 @@
         <v>20</v>
       </c>
       <c r="B41" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>=50067</v>
       </c>
       <c r="C41">
         <v>2</v>
       </c>
       <c r="D41" t="str">
-        <f t="shared" ref="D41" si="15">GetPriceProduct(A41)</f>
+        <f t="shared" ref="D41" si="21">GetPriceProduct(A41)</f>
         <v>1.42 руб./шт</v>
       </c>
       <c r="E41" s="2">
-        <f t="shared" ref="E41" si="16">SUBSTITUTE(MID(D41,1,4),".",",")*C41</f>
+        <f t="shared" ref="E41" si="22">SUBSTITUTE(MID(D41,1,4),".",",")*C41</f>
         <v>2.84</v>
       </c>
       <c r="F41" t="str">
-        <f>GetProductName(A41)</f>
+        <f t="shared" si="14"/>
         <v>Резонатор кварцевый SMD NX5032GA-8.000M-STD-CSU-1</v>
       </c>
     </row>
@@ -1330,22 +1343,22 @@
         <v>22</v>
       </c>
       <c r="B47" t="str">
-        <f>MID(A47, FIND("selected_product=", A47) + 16, LEN(A47))</f>
+        <f t="shared" ref="B47:B52" si="23">MID(A47, FIND("selected_product=", A47) + 16, LEN(A47))</f>
         <v>=29373</v>
       </c>
       <c r="C47">
         <v>1</v>
       </c>
       <c r="D47" t="str">
-        <f>GetPriceProduct(A47)</f>
+        <f t="shared" ref="D47:D52" si="24">GetPriceProduct(A47)</f>
         <v>0.05 руб./шт</v>
       </c>
       <c r="E47" s="2">
-        <f>SUBSTITUTE(MID(D47,1,4),".",",")*C47</f>
+        <f t="shared" ref="E47:E52" si="25">SUBSTITUTE(MID(D47,1,4),".",",")*C47</f>
         <v>0.05</v>
       </c>
       <c r="F47" t="str">
-        <f>GetProductName(A47)</f>
+        <f t="shared" ref="F47:F52" si="26">GetProductName(A47)</f>
         <v>Резистор SMD 0603 68R ±1% (0.1W) / SMD0603-68R-1%</v>
       </c>
     </row>
@@ -1354,22 +1367,22 @@
         <v>23</v>
       </c>
       <c r="B48" t="str">
-        <f>MID(A48, FIND("selected_product=", A48) + 16, LEN(A48))</f>
+        <f t="shared" si="23"/>
         <v>=30392</v>
       </c>
       <c r="C48">
         <v>8</v>
       </c>
       <c r="D48" t="str">
-        <f>GetPriceProduct(A48)</f>
+        <f t="shared" si="24"/>
         <v>0.06 руб./шт</v>
       </c>
       <c r="E48" s="2">
-        <f>SUBSTITUTE(MID(D48,1,4),".",",")*C48</f>
+        <f t="shared" si="25"/>
         <v>0.48</v>
       </c>
       <c r="F48" t="str">
-        <f>GetProductName(A48)</f>
+        <f t="shared" si="26"/>
         <v>Резистор SMD 0603 1K ±1% (0.1W) / RC0603FR-071KL</v>
       </c>
     </row>
@@ -1378,22 +1391,22 @@
         <v>24</v>
       </c>
       <c r="B49" t="str">
-        <f>MID(A49, FIND("selected_product=", A49) + 16, LEN(A49))</f>
+        <f t="shared" si="23"/>
         <v>=56700</v>
       </c>
       <c r="C49">
         <v>8</v>
       </c>
       <c r="D49" t="str">
-        <f>GetPriceProduct(A49)</f>
+        <f t="shared" si="24"/>
         <v>0.24 руб./шт</v>
       </c>
       <c r="E49" s="2">
-        <f>SUBSTITUTE(MID(D49,1,4),".",",")*C49</f>
+        <f t="shared" si="25"/>
         <v>1.92</v>
       </c>
       <c r="F49" t="str">
-        <f>GetProductName(A49)</f>
+        <f t="shared" si="26"/>
         <v>Резистор SMD 0603 10K ±0.1% (0.1W) / RT0603BRB0710KL</v>
       </c>
     </row>
@@ -1402,22 +1415,22 @@
         <v>25</v>
       </c>
       <c r="B50" t="str">
-        <f>MID(A50, FIND("selected_product=", A50) + 16, LEN(A50))</f>
+        <f t="shared" si="23"/>
         <v>=10362</v>
       </c>
       <c r="C50">
         <v>1</v>
       </c>
       <c r="D50" t="str">
-        <f>GetPriceProduct(A50)</f>
+        <f t="shared" si="24"/>
         <v>0.50 руб./упак</v>
       </c>
       <c r="E50" s="2">
-        <f>SUBSTITUTE(MID(D50,1,4),".",",")*C50</f>
+        <f t="shared" si="25"/>
         <v>0.5</v>
       </c>
       <c r="F50" t="str">
-        <f>GetProductName(A50)</f>
+        <f t="shared" si="26"/>
         <v>Резистор SMD 0603 100K ±1% (0.1W) / ERJ-3EKF1003V (10шт.)</v>
       </c>
       <c r="L50">
@@ -1429,22 +1442,22 @@
         <v>26</v>
       </c>
       <c r="B51" t="str">
-        <f>MID(A51, FIND("selected_product=", A51) + 16, LEN(A51))</f>
+        <f t="shared" si="23"/>
         <v>=47606</v>
       </c>
       <c r="C51">
         <v>5</v>
       </c>
       <c r="D51" t="str">
-        <f>GetPriceProduct(A51)</f>
+        <f t="shared" si="24"/>
         <v>0.04 руб./шт</v>
       </c>
       <c r="E51" s="2">
-        <f>SUBSTITUTE(MID(D51,1,4),".",",")*C51</f>
+        <f t="shared" si="25"/>
         <v>0.2</v>
       </c>
       <c r="F51" t="str">
-        <f>GetProductName(A51)</f>
+        <f t="shared" si="26"/>
         <v>Конденсатор SMD 0603 0.1uF 16V X7R ± 10% / CL10B104KO8NNNC</v>
       </c>
     </row>
@@ -1453,22 +1466,22 @@
         <v>27</v>
       </c>
       <c r="B52" t="str">
-        <f>MID(A52, FIND("selected_product=", A52) + 16, LEN(A52))</f>
+        <f t="shared" si="23"/>
         <v>=01564</v>
       </c>
       <c r="C52">
         <v>1</v>
       </c>
       <c r="D52" t="str">
-        <f>GetPriceProduct(A52)</f>
+        <f t="shared" si="24"/>
         <v>0.40 руб./упак</v>
       </c>
       <c r="E52" s="2">
-        <f>SUBSTITUTE(MID(D52,1,4),".",",")*C52</f>
+        <f t="shared" si="25"/>
         <v>0.4</v>
       </c>
       <c r="F52" t="str">
-        <f>GetProductName(A52)</f>
+        <f t="shared" si="26"/>
         <v>Конденсатор SMD 0603 30pF 50V (NP0) ± 5% (10шт.)</v>
       </c>
       <c r="L52">
@@ -1485,12 +1498,13 @@
   <hyperlinks>
     <hyperlink ref="A16" r:id="rId1"/>
     <hyperlink ref="A47" r:id="rId2"/>
+    <hyperlink ref="A5" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист3"/>
   <dimension ref="A1"/>
